--- a/results/metric_df/LTL_metrics.xlsx
+++ b/results/metric_df/LTL_metrics.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,17 +446,17 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>SASA</t>
+          <t>monosaccharides</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>sum_SASA</t>
+          <t>motifs</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>max_SASA</t>
+          <t>sasa</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -466,81 +466,530 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Q</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>theta</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>conformation</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>monosaccharides</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>motifs</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>class</t>
+          <t>has_multi_node_motifs</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
+          <t>Fuc(a1-2)Gal(b1-4)[Fuc(a1-3)]GlcNAc</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>2.941049111079613</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-3)', 'GlcNAc(b1-1)', 'Gal(b1-4)']</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-3)[Gal(b1-4)]GlcNAc']</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>5.579972003055474</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.5044241573238839</v>
+      </c>
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Fuc(a1-2)Gal(b1-4)[Fuc(a1-3)]GlcNAc(b1-3)[Fuc(a1-2)Gal(b1-4)[Fuc(a1-3)]GlcNAc(b1-6)]Gal(b1-4)Glc</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>4.374379875435189</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-3)', 'GlcNAc(b1-3)', 'Gal(b1-4)', 'Fuc(a1-3)', 'GlcNAc(b1-6)', 'Gal(b1-4)']</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-3)[Gal(b1-4)]GlcNAc']</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>9.565255680443062</v>
+      </c>
+      <c r="F3" t="n">
+        <v>19.33252617236988</v>
+      </c>
+      <c r="G3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Fuc(a1-2)Gal(b1-4)[Fuc(a1-3)]GlcNAc(b1-3)[Fuc(a1-3)[Gal(b1-4)]GlcNAc(b1-6)]Gal(b1-4)Glc</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.21601875928075</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-3)', 'GlcNAc(b1-3)', 'Gal(b1-4)', 'Fuc(a1-3)', 'GlcNAc(b1-6)', 'Gal(b1-4)']</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-3)[Gal(b1-4)]GlcNAc']</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>11.01642781363518</v>
+      </c>
+      <c r="F4" t="n">
+        <v>13.38627472508008</v>
+      </c>
+      <c r="G4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
           <t>Fuc(a1-3)[Gal(b1-4)]GlcNAc</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B5" t="n">
         <v>0.3628443505232086</v>
       </c>
-      <c r="C2" t="n">
-        <v>2.159407084061993</v>
-      </c>
-      <c r="D2" t="n">
-        <v>6.478221252185979</v>
-      </c>
-      <c r="E2" t="n">
-        <v>2.459217179038713</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.7190999999999997</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.423</v>
-      </c>
-      <c r="H2" t="n">
-        <v>7.213333333333334</v>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>['4C1', '4C1', '1C4']</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>['Gal(b1-4)', 'GlcNAc(b1-1)', 'Fuc(a1-3)']</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>['Gal(b1-4)[Fuc(a1-3)]GlcNAc']</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-3)', 'GlcNAc(b1-1)', 'Gal(b1-4)']</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-3)[Gal(b1-4)]GlcNAc']</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>6.478221252185978</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.675943647107682</v>
+      </c>
+      <c r="G5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Fuc(a1-3)[Gal(b1-4)]GlcNAc(b1-2)Man</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>-0.2521708272191472</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-3)', 'GlcNAc(b1-2)', 'Gal(b1-4)']</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-3)[Gal(b1-4)]GlcNAc']</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>6.129132072713423</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.8245303046571211</v>
+      </c>
+      <c r="G6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Fuc(a1-3)[Gal(b1-4)]GlcNAc(b1-2)Man(a1-3)[Fuc(a1-3)[Gal(b1-4)]GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2.548664959845272</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-3)', 'GlcNAc(b1-2)', 'Gal(b1-4)', 'Fuc(a1-3)', 'GlcNAc(b1-2)', 'Gal(b1-4)']</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-3)[Gal(b1-4)]GlcNAc']</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>10.52329855818988</v>
+      </c>
+      <c r="F7" t="n">
+        <v>25.23163491587895</v>
+      </c>
+      <c r="G7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Fuc(a1-3)[Gal(b1-4)]GlcNAc(b1-2)Man(a1-3)[Fuc(a1-3)[Gal(b1-4)]GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.3011612647986742</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-3)', 'GlcNAc(b1-2)', 'Gal(b1-4)', 'Fuc(a1-3)', 'GlcNAc(b1-2)', 'Gal(b1-4)']</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-3)[Gal(b1-4)]GlcNAc']</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>10.58656056554607</v>
+      </c>
+      <c r="F8" t="n">
+        <v>14.83485479023111</v>
+      </c>
+      <c r="G8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Fuc(a1-3)[Gal(b1-4)]GlcNAc(b1-2)Man(a1-3)[Gal(b1-4)GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1.5060834071893</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-3)', 'GlcNAc(b1-2)', 'Gal(b1-4)']</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-3)[Gal(b1-4)]GlcNAc']</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>6.089639775494224</v>
+      </c>
+      <c r="F9" t="n">
+        <v>7.255216780633644</v>
+      </c>
+      <c r="G9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Fuc(a1-3)[Gal(b1-4)]GlcNAc(b1-2)Man(a1-3)[GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2.757124283863672</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-3)', 'GlcNAc(b1-2)', 'Gal(b1-4)']</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-3)[Gal(b1-4)]GlcNAc']</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>6.007294848252479</v>
+      </c>
+      <c r="F10" t="n">
+        <v>8.105814196344546</v>
+      </c>
+      <c r="G10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Fuc(a1-3)[Gal(b1-4)]GlcNAc(b1-3)[Fuc(a1-3)[Gal(b1-4)]GlcNAc(b1-6)]Gal(b1-4)Glc</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>3.483302493402095</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-3)', 'GlcNAc(b1-3)', 'Gal(b1-4)', 'Fuc(a1-3)', 'GlcNAc(b1-6)', 'Gal(b1-4)']</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-3)[Gal(b1-4)]GlcNAc']</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>11.71321117733766</v>
+      </c>
+      <c r="F11" t="n">
+        <v>14.59256631590888</v>
+      </c>
+      <c r="G11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Fuc(a1-3)[Gal(b1-4)]GlcNAc(b1-3)[GlcNAc(b1-6)]Gal(b1-4)Glc</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.8100703473028128</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-3)', 'GlcNAc(b1-3)', 'Gal(b1-4)']</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-3)[Gal(b1-4)]GlcNAc']</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>6.109754761913267</v>
+      </c>
+      <c r="F12" t="n">
+        <v>4.505997347119996</v>
+      </c>
+      <c r="G12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[Fuc(a1-3)[Gal(b1-4)]GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1.566333752440393</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-3)', 'GlcNAc(b1-2)', 'Gal(b1-4)']</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-3)[Gal(b1-4)]GlcNAc']</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>5.084645736572502</v>
+      </c>
+      <c r="F13" t="n">
+        <v>11.11544369296569</v>
+      </c>
+      <c r="G13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Neu5Ac(a2-3)Gal(b1-4)[Fuc(a1-3)]GlcNAc</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>-0.4450146368780449</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-3)', 'GlcNAc(b1-1)', 'Gal(b1-4)']</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-3)[Gal(b1-4)]GlcNAc']</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>5.525014867211016</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1.211984850323384</v>
+      </c>
+      <c r="G14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Neu5Ac(a2-3)Gal(b1-4)[Fuc(a1-3)]GlcNAc(b1-2)Man</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>-0.2370572841537546</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-3)', 'GlcNAc(b1-2)', 'Gal(b1-4)']</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-3)[Gal(b1-4)]GlcNAc']</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>5.184439298586558</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1.960364345025721</v>
+      </c>
+      <c r="G15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Neu5Ac(a2-3)Gal(b1-4)[Fuc(a1-3)]GlcNAc(b1-3)Gal</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>-0.3472892556654277</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-3)', 'GlcNAc(b1-3)', 'Gal(b1-4)']</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-3)[Gal(b1-4)]GlcNAc']</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>5.24248825705105</v>
+      </c>
+      <c r="F16" t="n">
+        <v>2.506628274631001</v>
+      </c>
+      <c r="G16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Neu5Ac(a2-3)Gal(b1-4)[Fuc(a1-3)]GlcNAc(b1-6)[Gal(b1-3)]GalNAc</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1.198155062216338</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-3)', 'GlcNAc(b1-6)', 'Gal(b1-4)']</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-3)[Gal(b1-4)]GlcNAc']</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>5.046821525839349</v>
+      </c>
+      <c r="F17" t="n">
+        <v>3.592732401540937</v>
+      </c>
+      <c r="G17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Neu5Ac(a2-3)Gal(b1-4)[Fuc(a1-3)]GlcNAc(b1-6)[Neu5Ac(a2-3)Gal(b1-3)]GalNAc</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.8151334204908203</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-3)', 'GlcNAc(b1-6)', 'Gal(b1-4)']</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-3)[Gal(b1-4)]GlcNAc']</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>5.104934723254656</v>
+      </c>
+      <c r="F18" t="n">
+        <v>4.524568697905641</v>
+      </c>
+      <c r="G18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Neu5Gc(a2-3)Gal(b1-4)[Fuc(a1-3)]GlcNAc</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>-0.1904542367584611</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-3)', 'GlcNAc(b1-1)', 'Gal(b1-4)']</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>['Fuc(a1-3)[Gal(b1-4)]GlcNAc']</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>5.520963561159504</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1.469150847514329</v>
+      </c>
+      <c r="G19" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
